--- a/swapnil It.xlsx
+++ b/swapnil It.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,14 +176,14 @@
     <t>shubam</t>
   </si>
   <si>
-    <t>=</t>
+    <t>Salary sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +226,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -291,7 +299,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,9 +310,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,14 +317,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -606,11 +621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
@@ -620,31 +635,31 @@
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -675,7 +690,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -689,7 +704,7 @@
         <v>18000</v>
       </c>
       <c r="E7" s="2">
-        <f>C7*D7</f>
+        <f t="shared" ref="E7:E12" si="0">C7*D7</f>
         <v>180000</v>
       </c>
       <c r="F7" s="2">
@@ -705,13 +720,13 @@
         <v>18000</v>
       </c>
       <c r="I7" s="2">
-        <f>E7-H7</f>
+        <f t="shared" ref="I7:I12" si="1">E7-H7</f>
         <v>162000</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -725,7 +740,7 @@
         <v>32500</v>
       </c>
       <c r="E8" s="2">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>390000</v>
       </c>
       <c r="F8" s="2">
@@ -741,13 +756,13 @@
         <v>46800</v>
       </c>
       <c r="I8" s="2">
-        <f>E8-H8</f>
+        <f t="shared" si="1"/>
         <v>343200</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -761,7 +776,7 @@
         <v>11000</v>
       </c>
       <c r="E9" s="2">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>143000</v>
       </c>
       <c r="F9" s="2">
@@ -777,13 +792,13 @@
         <v>14300</v>
       </c>
       <c r="I9" s="2">
-        <f>E9-H9</f>
+        <f t="shared" si="1"/>
         <v>128700</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -797,7 +812,7 @@
         <v>25000</v>
       </c>
       <c r="E10" s="2">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>125000</v>
       </c>
       <c r="F10" s="2">
@@ -813,13 +828,13 @@
         <v>12500</v>
       </c>
       <c r="I10" s="2">
-        <f>E10-H10</f>
+        <f t="shared" si="1"/>
         <v>112500</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -833,7 +848,7 @@
         <v>8000</v>
       </c>
       <c r="E11" s="2">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>32000</v>
       </c>
       <c r="F11" s="2">
@@ -849,13 +864,13 @@
         <v>960</v>
       </c>
       <c r="I11" s="2">
-        <f>E11-H11</f>
+        <f t="shared" si="1"/>
         <v>31040</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -869,7 +884,7 @@
         <v>14000</v>
       </c>
       <c r="E12" s="2">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>98000</v>
       </c>
       <c r="F12" s="2">
@@ -885,13 +900,13 @@
         <v>2940</v>
       </c>
       <c r="I12" s="2">
-        <f>E12-H12</f>
+        <f t="shared" si="1"/>
         <v>95060</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -906,354 +921,354 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="2">
         <f>SUM(I7:I13)</f>
         <v>872500</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:14">
+      <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>56</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>67</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>86</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>97</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>86</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f>SUM(C23:G23)</f>
         <v>392</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f>MIN(C23:G23)</f>
         <v>56</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f>MAX(C23:G23)</f>
         <v>97</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <f>AVERAGE(C23:G23)</f>
         <v>78.400000000000006</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <f>H23/5</f>
         <v>78.400000000000006</v>
       </c>
-      <c r="M23" s="6" t="str">
+      <c r="M23" s="5" t="str">
         <f>IF(I23&gt;35,"pass","Fail")</f>
         <v>pass</v>
       </c>
-      <c r="N23" s="6" t="str">
+      <c r="N23" s="5" t="str">
         <f>IF(L23&gt;90,"A",IF(L23&gt;80,"B",IF(L23&gt;70,"C","No Grade")))</f>
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:14">
+      <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>75</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>76</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>86</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>80</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>64</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f>SUM(C24:G24)</f>
         <v>381</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f>MIN(C24:G24)</f>
         <v>64</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f>MAX(C24:G24)</f>
         <v>86</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f>AVERAGE(C24:G24)</f>
         <v>76.2</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <f>H24/5</f>
         <v>76.2</v>
       </c>
-      <c r="M24" s="6" t="str">
+      <c r="M24" s="5" t="str">
         <f>IF(I24&gt;35,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="N24" s="6" t="str">
+      <c r="N24" s="5" t="str">
         <f>IF(L24&gt;90,"A",IF(L24&gt;80,"B",IF(L24&gt;70,"C","No Grade")))</f>
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:14">
+      <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>80</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>87</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>82</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>81</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>84</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f>SUM(C25:G25)</f>
         <v>414</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f>MIN(C25:G25)</f>
         <v>80</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f>MAX(C25:G25)</f>
         <v>87</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f>AVERAGE(C25:G25)</f>
         <v>82.8</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <f>H25/5</f>
         <v>82.8</v>
       </c>
-      <c r="M25" s="6" t="str">
+      <c r="M25" s="5" t="str">
         <f>IF(I25&gt;35,"pass","Fail")</f>
         <v>pass</v>
       </c>
-      <c r="N25" s="6" t="str">
+      <c r="N25" s="5" t="str">
         <f>IF(L25&gt;90,"A",IF(L25&gt;80,"B",IF(L25&gt;70,"C","No Grade")))</f>
         <v>B</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="26" spans="1:14">
+      <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>90</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>92</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>97</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>94</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>99</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f>SUM(C26:G26)</f>
         <v>472</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f>MIN(C26:G26)</f>
         <v>90</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f>MAX(C26:G26)</f>
         <v>99</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f>AVERAGE(C26:G26)</f>
         <v>94.4</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <f>H26/5</f>
         <v>94.4</v>
       </c>
-      <c r="M26" s="6" t="str">
+      <c r="M26" s="5" t="str">
         <f>IF(I26&gt;35,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="N26" s="6" t="str">
+      <c r="N26" s="5" t="str">
         <f>IF(L26&gt;90,"A",IF(L26&gt;80,"B",IF(L26&gt;70,"C","No Grade")))</f>
         <v>A</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:14">
+      <c r="A27" s="5">
         <v>5</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>40</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>39</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>45</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>65</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>35</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f>SUM(C27:G27)</f>
         <v>224</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <f>MIN(C27:G27)</f>
         <v>35</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>MAX(C27:G27)</f>
         <v>65</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <f>AVERAGE(C27:G27)</f>
         <v>44.8</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <f>H27/5</f>
         <v>44.8</v>
       </c>
-      <c r="M27" s="6" t="str">
+      <c r="M27" s="5" t="str">
         <f>IF(I27&gt;35,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="N27" s="6" t="str">
+      <c r="N27" s="5" t="str">
         <f>IF(L27&gt;90,"A",IF(L27&gt;80,"B",IF(L27&gt;70,"C","No Grade")))</f>
         <v>No Grade</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1269,127 +1284,337 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="30">
+      <c r="A34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:13">
+      <c r="A35" s="12">
         <v>1</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="12">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="12">
         <v>30000</v>
       </c>
-      <c r="E35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E35" s="12">
+        <f>D35*5%</f>
+        <v>1500</v>
+      </c>
+      <c r="F35" s="12">
+        <f>D35*5%</f>
+        <v>1500</v>
+      </c>
+      <c r="G35" s="12">
+        <f>D35*5%</f>
+        <v>1500</v>
+      </c>
+      <c r="H35" s="12">
+        <f>SUM(D35:G35)</f>
+        <v>34500</v>
+      </c>
+      <c r="I35" s="12">
+        <f>D35*5%</f>
+        <v>1500</v>
+      </c>
+      <c r="J35" s="12">
+        <f>H35*5%</f>
+        <v>1725</v>
+      </c>
+      <c r="K35" s="12">
+        <f>H35*2%</f>
+        <v>690</v>
+      </c>
+      <c r="L35" s="12">
+        <f>SUM(I35:K35)</f>
+        <v>3915</v>
+      </c>
+      <c r="M35" s="12">
+        <f>H35-L35</f>
+        <v>30585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="12">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="12">
         <v>102</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="12">
         <v>35000</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E36" s="12">
+        <f>D36*5%</f>
+        <v>1750</v>
+      </c>
+      <c r="F36" s="12">
+        <f>D36*5%</f>
+        <v>1750</v>
+      </c>
+      <c r="G36" s="12">
+        <f>D36*5%</f>
+        <v>1750</v>
+      </c>
+      <c r="H36" s="12">
+        <f>SUM(D36:G36)</f>
+        <v>40250</v>
+      </c>
+      <c r="I36" s="12">
+        <f>D36*5%</f>
+        <v>1750</v>
+      </c>
+      <c r="J36" s="12">
+        <f>H36*8%</f>
+        <v>3220</v>
+      </c>
+      <c r="K36" s="12">
+        <f>H36*5%</f>
+        <v>2012.5</v>
+      </c>
+      <c r="L36" s="12">
+        <f>SUM(I36:K36)</f>
+        <v>6982.5</v>
+      </c>
+      <c r="M36" s="12">
+        <f>H36-L36</f>
+        <v>33267.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="12">
         <v>3</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="12">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="12">
         <v>40000</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E37" s="12">
+        <f>D37*5%</f>
+        <v>2000</v>
+      </c>
+      <c r="F37" s="12">
+        <f>D37*5%</f>
+        <v>2000</v>
+      </c>
+      <c r="G37" s="12">
+        <f>D37*2%</f>
+        <v>800</v>
+      </c>
+      <c r="H37" s="12">
+        <f>SUM(D37:G37)</f>
+        <v>44800</v>
+      </c>
+      <c r="I37" s="12">
+        <f>D37*5%</f>
+        <v>2000</v>
+      </c>
+      <c r="J37" s="12">
+        <f>H37*5%</f>
+        <v>2240</v>
+      </c>
+      <c r="K37" s="12">
+        <f>H37*8%</f>
+        <v>3584</v>
+      </c>
+      <c r="L37" s="12">
+        <f>SUM(I37:K37)</f>
+        <v>7824</v>
+      </c>
+      <c r="M37" s="12">
+        <f>H37-L37</f>
+        <v>36976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="12">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="12">
         <v>104</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="12">
         <v>47000</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E38" s="12">
+        <f>D38*5%</f>
+        <v>2350</v>
+      </c>
+      <c r="F38" s="12">
+        <f>D38*4%</f>
+        <v>1880</v>
+      </c>
+      <c r="G38" s="12">
+        <f>D38*8%</f>
+        <v>3760</v>
+      </c>
+      <c r="H38" s="12">
+        <f>SUM(D38:G38)</f>
+        <v>54990</v>
+      </c>
+      <c r="I38" s="12">
+        <f>D38*5%</f>
+        <v>2350</v>
+      </c>
+      <c r="J38" s="12">
+        <f>H38*5%</f>
+        <v>2749.5</v>
+      </c>
+      <c r="K38" s="12">
+        <f>H38*5%</f>
+        <v>2749.5</v>
+      </c>
+      <c r="L38" s="12">
+        <f>SUM(I38:K38)</f>
+        <v>7849</v>
+      </c>
+      <c r="M38" s="12">
+        <f>H38-L38</f>
+        <v>47141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="12">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="12">
         <v>105</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="12">
         <v>55000</v>
       </c>
+      <c r="E39" s="12">
+        <f>D39*5%</f>
+        <v>2750</v>
+      </c>
+      <c r="F39" s="12">
+        <f>D39*5%</f>
+        <v>2750</v>
+      </c>
+      <c r="G39" s="12">
+        <f>D39*8%</f>
+        <v>4400</v>
+      </c>
+      <c r="H39" s="12">
+        <f>SUM(D39:G39)</f>
+        <v>64900</v>
+      </c>
+      <c r="I39" s="12">
+        <f>D39*7%</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="J39" s="12">
+        <f>H39*5%</f>
+        <v>3245</v>
+      </c>
+      <c r="K39" s="12">
+        <f>H39*5%</f>
+        <v>3245</v>
+      </c>
+      <c r="L39" s="12">
+        <f>SUM(I39:K39)</f>
+        <v>10340</v>
+      </c>
+      <c r="M39" s="12">
+        <f>H39-L39</f>
+        <v>54560</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:I5"/>
     <mergeCell ref="A20:N21"/>
+    <mergeCell ref="A32:M33"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I11">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1401,7 +1626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H11">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1413,7 +1638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G11">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1425,7 +1650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F11">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1437,7 +1662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1449,7 +1674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D11">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1461,7 +1686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C11">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1473,7 +1698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:L27">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1485,7 +1710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:G27">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1497,7 +1722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H27">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1511,7 +1736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I27">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1525,7 +1750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J27">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1539,7 +1764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:K27">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1548,6 +1773,84 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8D51C89A-41C6-445F-A3BB-A09D2A2FA922}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M39">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D39">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5946996E-3D61-4331-9BFD-07EDD21C25F7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H39">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0F1689D1-9B07-4EF1-B0C6-518AFB77156D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:G39">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:K39">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{32337E31-D44D-4C61-924B-AAD9C90FDB55}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1605,6 +1908,43 @@
           </x14:cfRule>
           <xm:sqref>K23:K27</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5946996E-3D61-4331-9BFD-07EDD21C25F7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D35:D39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0F1689D1-9B07-4EF1-B0C6-518AFB77156D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35:H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{32337E31-D44D-4C61-924B-AAD9C90FDB55}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L35:L39</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
